--- a/0_MP2 Data/Pipette Transformer 사양서_20190302.xlsx
+++ b/0_MP2 Data/Pipette Transformer 사양서_20190302.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296B0845-AF2E-4715-B7AD-E617FB1719F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +13,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>부품 사양서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,13 +224,17 @@
   </si>
   <si>
     <t>&lt;&lt; 작업시 주의 사항&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작 순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,6 +476,38 @@
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,13 +517,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -499,48 +541,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -552,6 +556,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -574,7 +581,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -629,7 +642,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -684,7 +703,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -739,7 +764,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -777,6 +808,439 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>176734</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>65570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>33184</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69155</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="그룹 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036E36D3-591F-48C1-A218-F78CA3A1D1EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14110448" y="1382741"/>
+          <a:ext cx="3339879" cy="2420214"/>
+          <a:chOff x="14437019" y="1371855"/>
+          <a:chExt cx="3339879" cy="2420214"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="그림 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F235E26D-12B7-47BD-BE52-F031FECB317A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="16200000">
+            <a:off x="14913428" y="934249"/>
+            <a:ext cx="2420214" cy="3295426"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="TextBox 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE66CDB-6C4A-4ADC-99BD-821C96DCAD85}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17387048" y="2964756"/>
+            <a:ext cx="389850" cy="447045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑨</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="TextBox 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17FA81DE-E9B8-425F-ABCA-B7B89AEC8D2A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14485685" y="3240101"/>
+            <a:ext cx="389850" cy="447045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="TextBox 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE43F537-2E79-4AD9-95BB-2DC7F16EC567}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17365276" y="1734671"/>
+            <a:ext cx="389850" cy="447045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑧</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="TextBox 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8422FDC7-F1CB-400F-AAEF-12E113554C15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14447905" y="1516957"/>
+            <a:ext cx="389850" cy="447045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑥</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="TextBox 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065FDE86-E78F-409B-9013-2E1B2CDBE491}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14437019" y="2126556"/>
+            <a:ext cx="389850" cy="447045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑤</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="TextBox 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AA7C65-FD1F-4367-BF71-EED76CD0F30D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14458792" y="2583756"/>
+            <a:ext cx="389850" cy="447045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="직선 연결선 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62FF0CE-EA20-45B9-8463-EEB8E9AD10A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="16807543" y="2177143"/>
+            <a:ext cx="489857" cy="576943"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -825,7 +1289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -858,9 +1322,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -893,6 +1374,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1068,543 +1566,596 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AV40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="G3" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="35" width="5.625" customWidth="1"/>
+    <col min="1" max="48" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="8" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="2" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="8" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9" t="s">
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="10"/>
-    </row>
-    <row r="2" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="11" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="24"/>
+    </row>
+    <row r="2" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="11" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12" t="s">
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="13"/>
-    </row>
-    <row r="3" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="14" t="s">
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="25"/>
+    </row>
+    <row r="3" spans="1:48" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="14" t="s">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15" t="s">
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="16"/>
-    </row>
-    <row r="5" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="26"/>
+    </row>
+    <row r="5" spans="1:48" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="AG5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="26"/>
+      <c r="J6" s="11"/>
       <c r="R6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:48" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="16" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="16" spans="1:48" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25" t="s">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25" t="s">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="25"/>
-      <c r="P17" s="26"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="20"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="20"/>
-    </row>
-    <row r="20" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22" t="s">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22" t="s">
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
       <c r="Q21" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
+  <mergeCells count="78">
+    <mergeCell ref="AG1:AP3"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AV3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
@@ -1617,26 +2168,45 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1646,12 +2216,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1659,12 +2229,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_MP2 Data/Pipette Transformer 사양서_20190302.xlsx
+++ b/0_MP2 Data/Pipette Transformer 사양서_20190302.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296B0845-AF2E-4715-B7AD-E617FB1719F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>부품 사양서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.03.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;&lt; 규격 및 정격 &gt;&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,14 +222,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제작 순서</t>
+    <t>1) 1차측 권선 작업 후 절연 테이프 2-turn 작업 후 2차측 권선 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) LOMEX 추가 후 Core 결합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 절연 테이프로 Core 고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer 제작 순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,33 +492,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,12 +510,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,10 +519,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -584,7 +595,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -645,7 +656,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -706,7 +717,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -767,7 +778,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -828,7 +839,7 @@
         <xdr:cNvPr id="18" name="그룹 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036E36D3-591F-48C1-A218-F78CA3A1D1EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{036E36D3-591F-48C1-A218-F78CA3A1D1EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -836,8 +847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14110448" y="1382741"/>
-          <a:ext cx="3339879" cy="2420214"/>
+          <a:off x="14110448" y="1331034"/>
+          <a:ext cx="3339879" cy="2275978"/>
           <a:chOff x="14437019" y="1371855"/>
           <a:chExt cx="3339879" cy="2420214"/>
         </a:xfrm>
@@ -847,7 +858,7 @@
           <xdr:cNvPr id="8" name="그림 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F235E26D-12B7-47BD-BE52-F031FECB317A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F235E26D-12B7-47BD-BE52-F031FECB317A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -893,7 +904,7 @@
           <xdr:cNvPr id="10" name="TextBox 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE66CDB-6C4A-4ADC-99BD-821C96DCAD85}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEE66CDB-6C4A-4ADC-99BD-821C96DCAD85}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -945,7 +956,7 @@
           <xdr:cNvPr id="11" name="TextBox 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17FA81DE-E9B8-425F-ABCA-B7B89AEC8D2A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17FA81DE-E9B8-425F-ABCA-B7B89AEC8D2A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -997,7 +1008,7 @@
           <xdr:cNvPr id="12" name="TextBox 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE43F537-2E79-4AD9-95BB-2DC7F16EC567}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE43F537-2E79-4AD9-95BB-2DC7F16EC567}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1049,7 +1060,7 @@
           <xdr:cNvPr id="13" name="TextBox 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8422FDC7-F1CB-400F-AAEF-12E113554C15}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8422FDC7-F1CB-400F-AAEF-12E113554C15}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1101,7 +1112,7 @@
           <xdr:cNvPr id="14" name="TextBox 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065FDE86-E78F-409B-9013-2E1B2CDBE491}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{065FDE86-E78F-409B-9013-2E1B2CDBE491}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1153,7 +1164,7 @@
           <xdr:cNvPr id="15" name="TextBox 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AA7C65-FD1F-4367-BF71-EED76CD0F30D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79AA7C65-FD1F-4367-BF71-EED76CD0F30D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1205,7 +1216,7 @@
           <xdr:cNvPr id="17" name="직선 연결선 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62FF0CE-EA20-45B9-8463-EEB8E9AD10A4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C62FF0CE-EA20-45B9-8463-EEB8E9AD10A4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1241,6 +1252,171 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>222998</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>214032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>174813</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>118782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="14478001" y="4045323"/>
+          <a:ext cx="2470897" cy="3011021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>147099</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>353545</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17628275" y="4370294"/>
+          <a:ext cx="3265652" cy="2398060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>355787</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="14253882" y="7232994"/>
+          <a:ext cx="3583081" cy="1789423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1289,7 +1465,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1322,26 +1498,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1374,23 +1533,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1566,596 +1708,619 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="G3" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AN20" sqref="AN20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AR10" sqref="AR10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="48" width="5.59765625" customWidth="1"/>
+    <col min="1" max="48" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="22" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="14" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="22" t="s">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23" t="s">
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="14" t="s">
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="22" t="s">
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23" t="s">
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="24"/>
-    </row>
-    <row r="2" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="20" t="s">
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="13"/>
+    </row>
+    <row r="2" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="20" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21" t="s">
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="20" t="s">
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21" t="s">
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="25"/>
-    </row>
-    <row r="3" spans="1:48" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="12" t="s">
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="16"/>
+    </row>
+    <row r="3" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
+      <c r="L3" s="18"/>
+      <c r="M3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="19"/>
+    </row>
+    <row r="5" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="26"/>
-    </row>
-    <row r="5" spans="1:48" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="B6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="R6" t="s">
         <v>49</v>
       </c>
-      <c r="AG5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="R6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="AG6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="B13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:48" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="16" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="20"/>
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="16" spans="1:48" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="10"/>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="25"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="B19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="25"/>
+      <c r="AG19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
+      <c r="I20" s="22"/>
+      <c r="J20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8" t="s">
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8" t="s">
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="AG1:AP3"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AV1"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AV3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
@@ -2168,45 +2333,33 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AP3"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AV3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2216,12 +2369,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2229,12 +2382,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
